--- a/lung cancer disease/projek sda sem 2/data.xlsx
+++ b/lung cancer disease/projek sda sem 2/data.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,731 +2908,6 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>09 June 2023</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>wert</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>21</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1234567</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>asdfghjkl</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>BPJS</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>09 June 2023</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>mich</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>21</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>wertyuio</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>BPJS</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>09 June 2023</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>aku</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>22</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1234567</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>asdfghjk</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>BPJS</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>09 June 2023</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>mikel</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>24</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>432334</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>rfexsxf</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Non BPJS</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>09 June 2023</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>qwert</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>234567</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>wertyui</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>BPJS</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
